--- a/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
+++ b/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="修改范围" sheetId="1" r:id="rId1"/>
     <sheet name="方案" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SDE" sheetId="3" r:id="rId3"/>
+    <sheet name="修改内容" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="365">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,6 +704,532 @@
   </si>
   <si>
     <t>SA_TRAN_DISC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHASE</t>
+  </si>
+  <si>
+    <t>PACKAGE</t>
+  </si>
+  <si>
+    <t>INTERFACE</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>SDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_BBG_Retail_SalesTransactionFact</t>
+  </si>
+  <si>
+    <t>RA External Tables</t>
+  </si>
+  <si>
+    <t>BBG_XTERN_RDWT</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA Processing Views</t>
+  </si>
+  <si>
+    <t>RESTART_LOC</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>DEPS</t>
+  </si>
+  <si>
+    <t>SA_TRAN_HEAD</t>
+  </si>
+  <si>
+    <t>SA_TRAN_ITEM</t>
+  </si>
+  <si>
+    <t>RA Temp Tables</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP_A</t>
+  </si>
+  <si>
+    <t>ITEM_MASTER</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>BBG_RA_ITEM_LOC_SOH_V</t>
+  </si>
+  <si>
+    <t>ITEM_SUPPLIER</t>
+  </si>
+  <si>
+    <t>ITEM_LOC</t>
+  </si>
+  <si>
+    <t>V_PACKSKU_QTY</t>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_COMPCOST_TMP</t>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_COST_TMP</t>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_TMP</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTART_LOC.THREAD_VAL = #RA_SRC_THREAD_VAL</t>
+  </si>
+  <si>
+    <t>RESTART_LOC.SCENARIO_NAME = 'GET_SCEN_NAME()'</t>
+  </si>
+  <si>
+    <t>TRIM(XTERN_RDWT.TRANSACTION_TYPE) = '#RA_SRC_TRX_TYPE_SALE' OR 
+TRIM(XTERN_RDWT.TRANSACTION_TYPE) = '#RA_SRC_TRX_TYPE_RETURN' OR
+TRIM(XTERN_RDWT.TRANSACTION_TYPE) = '#RA_SRC_TRX_TYPE_EEXCH'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPR_TX_IT_LC_DY_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP_A.ITEM_TYPE = 'ITEM' OR
+W_RTL_SLS_TRX_TMP_A.ITEM_TYPE = 'REF' OR
+W_RTL_SLS_TRX_TMP_A.ITEM_TYPE = 'NMITEM'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_IT_LC_DY_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_COMPACOST_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_COST_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_IT_LC_DY_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_MASTER.ITEM_XFORM_IND &lt;&gt; 'Y'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W_RTL_SLS_TRX_TMP_A.ITEM_TYPE NOT IN ('ITEM', 'REF', 'NMITEM') </t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP.IT_TYPE not in ('ITEM','REF','NMITEM')</t>
+  </si>
+  <si>
+    <t>trim(upper(W_RTL_SLS_TRX_TMP_A.ITEM_TYPE)) IN ('ITEM','REF','NMITEM')</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP.IT_TYPE in ('ITEM','REF','NMITEM')</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP.PACK_IND = 'N' OR W_RTL_SLS_TRX_TMP.PURCHASE_TYPE &gt; 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP.PACK_IND = 'Y'</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP.PURCHASE_TYPE = 0</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP.PACK_IND='Y'</t>
+  </si>
+  <si>
+    <t>修改的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFactTempLoad_A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS ADD COLUMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Dimension Temp</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Fact Stage</t>
+  </si>
+  <si>
+    <t>W_GLOBAL_CURR_G</t>
+  </si>
+  <si>
+    <t>W_INT_ORG_DH_RTL_TMP</t>
+  </si>
+  <si>
+    <t>W_PRODUCT_D_RTL_TMP</t>
+  </si>
+  <si>
+    <t>W_MCAL_WEEK_D</t>
+  </si>
+  <si>
+    <t>W_MCAL_DAY_D</t>
+  </si>
+  <si>
+    <t>W_XACT_TYPE_D</t>
+  </si>
+  <si>
+    <t>W_MCAL_CONTEXT_G</t>
+  </si>
+  <si>
+    <t>W_INT_ORG_D_RTL_TMP</t>
+  </si>
+  <si>
+    <t>BBG_RA_RETAIL_TYPE_D</t>
+  </si>
+  <si>
+    <t>BBG_RA_ITEM_LOC_D</t>
+  </si>
+  <si>
+    <t>W_MINUTE_OF_DAY_D</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_IT_LC_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggregate Temp</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_IT_LC_DY_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_CL_BM_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_CL_BM_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_DP_BM_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_DP_BM_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_DV_BM_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_DV_BM_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesCLDPLocDyWkAggregate</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_CL_LC_WK_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_CL_LC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesCorporateOrgAggregate</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_WK_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_WK_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesITLcDyTempLoad</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_LC_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesITSCLcDyAggregate</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_LC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_LC_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_LC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesProdCorporateAggregate</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_LC_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggregate Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_LC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_LC_WK_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesSNAggregate</t>
+  </si>
+  <si>
+    <t>W_RTL_SEASON_IT_D</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_LC_DY_SN_TMP</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_LC_DY_SN_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_LC_DY_SN_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_LC_WK_SN_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_DY_SN_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_IT_WK_SN_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesTRXAggregate</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_LC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_DP_LC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_RFM_VP_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_Retail_Sales_MBA_Aggregate</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_MBA_LC_DY_FV</t>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_MBA_LC_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_RetailSalesMBALcDYLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_MBA_LC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_MBA_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesBMITCLDPDVDyAggregate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISC_AMT</t>
+  </si>
+  <si>
+    <t>SUM(Case 
+ When XTERN_RDWT.TRANSACTION_SIGN='P' Then XTERN_RDWT.DISCOUNT_VAL/10000 
+ When XTERN_RDWT.TRANSACTION_SIGN='N' Then (XTERN_RDWT.DISCOUNT_VAL/10000)*-1 
+Else NULL 
+End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case 
+ When XTERN_RDWT.TRANSACTION_SIGN='P' Then XTERN_RDWT.DISCOUNT_VAL/10000 
+ When XTERN_RDWT.TRANSACTION_SIGN='N' Then (XTERN_RDWT.DISCOUNT_VAL/10000)*-1 
+Else NULL 
+End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRX_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case
+         When XTERN_RDWT.SALES_SIGN = 'P' Then
+          XTERN_RDWT.TOT_TRANSACTION_VAL / 10000
+         When XTERN_RDWT.SALES_SIGN = 'N' Then
+          (XTERN_RDWT.TOT_TRANSACTION_VAL / 10000) * -1
+         Else
+          NULL
+       End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIN(Case
+       When XTERN_RDWT.SALES_SIGN = 'P' Then
+        XTERN_RDWT.TOT_TRANSACTION_VAL / 10000
+       When XTERN_RDWT.SALES_SIGN = 'N' Then
+        (XTERN_RDWT.TOT_TRANSACTION_VAL / 10000) * -1
+       Else
+        0
+     End) + SUM(Case
+                  When XTERN_RDWT.TRANSACTION_SIGN = 'P' and
+                       XTERN_RDWT.PROMO_TRANSACTION_TYPE in ('50', '51', '52') Then
+                   NVL(XTERN_RDWT.DISCOUNT_VAL, 0) / 10000
+                  When XTERN_RDWT.TRANSACTION_SIGN = 'N' and
+                       XTERN_RDWT.PROMO_TRANSACTION_TYPE in ('50', '51', '52') Then
+                   (NVL(XTERN_RDWT.DISCOUNT_VAL, 0) / 10000) * -1
+                  Else
+                   0
+                End)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROMO_TYPE</t>
+  </si>
+  <si>
+    <t>trim(XTERN_RDWT.PROMO_TRANSACTION_TYPE)</t>
+  </si>
+  <si>
+    <t>PROMO_DETAIL</t>
+  </si>
+  <si>
+    <t>to_char(XTERN_RDWT.PROMO_COMPONENT_NO)</t>
+  </si>
+  <si>
+    <t>PROMO_NUM</t>
+  </si>
+  <si>
+    <t>to_char(XTERN_RDWT.PROMO_NO)</t>
+  </si>
+  <si>
+    <t>min(trim(XTERN_RDWT.PROMO_TRANSACTION_TYPE))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min(to_char(XTERN_RDWT.PROMO_NO))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min(to_char(XTERN_RDWT.PROMO_COMPONENT_NO))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +1237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,8 +1261,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,13 +1289,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -769,7 +1383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +1395,96 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -2629,14 +3333,1510 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.75">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A32" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="26"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="26"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="26"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="26"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="26"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="26"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="26"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="32"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="26"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="26"/>
+      <c r="B54" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="26"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="26"/>
+      <c r="B56" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="26"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="26"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="26"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="26"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="26"/>
+      <c r="B61" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="26"/>
+      <c r="B62" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="26"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="26"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="26"/>
+      <c r="B65" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="26"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="26"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="26"/>
+      <c r="B68" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="26"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="26"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="26"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="26"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="26"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="26"/>
+      <c r="B74" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="26"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="26"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="26"/>
+      <c r="B77" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="26"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="27"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G79" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="F32:F43"/>
+    <mergeCell ref="C32:C43"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B2:B31"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A45:A79"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="213.75">
+      <c r="A2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="78.75">
+      <c r="A3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
+++ b/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7920" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修改范围" sheetId="1" r:id="rId1"/>
     <sheet name="方案" sheetId="2" r:id="rId2"/>
-    <sheet name="SDE" sheetId="3" r:id="rId3"/>
-    <sheet name="修改内容" sheetId="4" r:id="rId4"/>
+    <sheet name="ODI" sheetId="3" r:id="rId3"/>
+    <sheet name="修改事实内容" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="366">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,9 +733,6 @@
   </si>
   <si>
     <t>RA External Tables</t>
-  </si>
-  <si>
-    <t>BBG_XTERN_RDWT</t>
   </si>
   <si>
     <t>W_RTL_SLS_TRX_TMP_A</t>
@@ -862,10 +859,6 @@
   </si>
   <si>
     <t>W_RTL_SLS_TRX_TMP.IT_TYPE in ('ITEM','REF','NMITEM')</t>
-  </si>
-  <si>
-    <t>W_RTL_SLS_TRX_TMP.PACK_IND = 'N' OR W_RTL_SLS_TRX_TMP.PURCHASE_TYPE &gt; 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>W_RTL_SLS_TRX_TMP.PACK_IND = 'Y'</t>
@@ -1232,12 +1225,45 @@
     <t>min(to_char(XTERN_RDWT.PROMO_COMPONENT_NO))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>BBG_XTERN_RDWT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W_RTL_SLS_TRX_TMP.PACK_IND = 'N'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR W_RTL_SLS_TRX_TMP.PURCHASE_TYPE &gt; 0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_LC_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1262,6 +1288,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1383,7 +1426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,9 +1439,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1438,9 +1478,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1468,23 +1577,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1783,7 +1877,7 @@
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -3335,1368 +3429,1367 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="5.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33.75">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.75">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="28" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33.75">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="33.75">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="F26" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="5" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="E33" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="5" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="32" t="s">
+      <c r="E34" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="5" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="E39" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" s="24" customFormat="1">
+      <c r="A45" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="24" customFormat="1">
+      <c r="A46" s="48"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="33"/>
+    </row>
+    <row r="47" spans="1:8" s="24" customFormat="1">
+      <c r="A47" s="48"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="G47" s="23"/>
+      <c r="H47" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="24" customFormat="1">
+      <c r="A48" s="48"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="6" t="s">
+      <c r="E48" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="24" customFormat="1">
+      <c r="A49" s="48"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8" s="24" customFormat="1">
+      <c r="A50" s="48"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="24" customFormat="1">
+      <c r="A51" s="48"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" s="34"/>
+      <c r="H51" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="24" customFormat="1">
+      <c r="A52" s="48"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="E52" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="F52" s="32"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8" s="24" customFormat="1">
+      <c r="A53" s="48"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="E53" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="48"/>
+      <c r="B54" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="48"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="48"/>
+      <c r="B56" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="48"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="48"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="48"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="48"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" s="24" customFormat="1">
+      <c r="A61" s="48"/>
+      <c r="B61" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E61" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="32" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="26"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="F61" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="48"/>
+      <c r="B62" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="32"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="26"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="26"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="32" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="26"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="F62" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="32"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="26"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="26"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="F63" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="48"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="48"/>
+      <c r="B65" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="32" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="26"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="32"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="26"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="26"/>
-      <c r="B54" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="26"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="26"/>
-      <c r="B56" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="F65" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="48"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="48"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="48"/>
+      <c r="B68" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="26"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="26"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="26"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="26"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="26"/>
-      <c r="B61" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="F68" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="48"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" s="28"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="48"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="48"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="48"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="48"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="48"/>
+      <c r="B74" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="26"/>
-      <c r="B62" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="26"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="26"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="26"/>
-      <c r="B65" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="26"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="26"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="26"/>
-      <c r="B68" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="26"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="26"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="26"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="26"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="26"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="F74" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="26"/>
-      <c r="B74" s="17" t="s">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="48"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="48"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F76" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="26"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="6" t="s">
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="48"/>
+      <c r="B77" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="26"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="C77" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="26"/>
-      <c r="B77" s="17" t="s">
+      <c r="E77" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="F77" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="48"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="D78" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="26"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="7" t="s">
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="49"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="27"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="G79" s="6"/>
+      <c r="G79" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="F32:F43"/>
-    <mergeCell ref="C32:C43"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B45:B53"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A45:A79"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B32:B44"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B2:B31"/>
     <mergeCell ref="C2:C7"/>
@@ -4710,22 +4803,23 @@
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A32:A44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B32:B44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A45:A79"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="F32:F43"/>
+    <mergeCell ref="C32:C43"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="H26:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4737,7 +4831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4752,16 +4846,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="213.75">
@@ -4769,13 +4863,13 @@
         <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="78.75">
@@ -4783,13 +4877,13 @@
         <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>351</v>
+      <c r="D3" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4797,13 +4891,13 @@
         <v>166</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4811,13 +4905,13 @@
         <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4825,13 +4919,13 @@
         <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
+++ b/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="385">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,10 +1105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BBG_RA_RFM_VP_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PLP_BBG_Retail_Sales_MBA_Aggregate</t>
   </si>
   <si>
@@ -1116,22 +1112,6 @@
   </si>
   <si>
     <t>BBG_RA_SLS_MBA_LC_DY_FV</t>
-  </si>
-  <si>
-    <t>BBG_RA_SLS_MBA_LC_DY_TMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLP_RetailSalesMBALcDYLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBG_RA_SLS_MBA_LC_DY_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBG_RA_SLS_MBA_DY_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PLP_BBG_RetailSalesBMITCLDPDVDyAggregate</t>
@@ -1258,12 +1238,102 @@
     <t>W_RTL_SLS_SC_LC_DY_TMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PLP_RetailSalesCorpOrgITDyTempLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_RetailSalesCorpOrgITDyLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_RetailSalesCorpOrgSCDayLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_RFM_VIP_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_MBA_LC_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_RetailSalesMBALcDYLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_MBA_LC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_SLS_MBA_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesCorporateOrgSCDyWkCurrAggregate</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_DY_CUR_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_DY_CUR_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_WK_CUR_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesCorporateOrgSCDyWkCurrReclassAggregate</t>
+  </si>
+  <si>
+    <t>PLP_RetailSalesCorporateOrgSCDyCurrReclassLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesSCCLDPLcDyWkCurrAggregate</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_LC_DY_CUR_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_LC_DY_CUR_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_LC_WK_CUR_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_CL_LC_DY_CUR_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_RetailSalesSCLcDyCurrTempLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP_BBG_RetailSalesSCCLDPLcDyWkCurrReclassAggregate</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>W_RTL_PROD_RECLASS_TMP</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_LC_DY_RC_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1382,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1351,7 +1436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1420,13 +1505,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,77 +1602,119 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3427,18 +3563,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="5.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="11" bestFit="1" customWidth="1"/>
@@ -3475,22 +3611,22 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="46" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>232</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F2" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>233</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3498,78 +3634,78 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33.75">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="33.75">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="37" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="48" t="s">
         <v>164</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3578,7 +3714,7 @@
       <c r="E8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="43" t="s">
         <v>257</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3586,23 +3722,23 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="15" t="s">
         <v>274</v>
       </c>
@@ -3623,8 +3759,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="15" t="s">
         <v>173</v>
       </c>
@@ -3645,9 +3781,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="37" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="48" t="s">
         <v>168</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3656,78 +3792,78 @@
       <c r="E12" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="49" t="s">
         <v>259</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="56" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="27"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="27"/>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="27"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="37" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="48" t="s">
         <v>172</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3736,64 +3872,64 @@
       <c r="E17" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="50" t="s">
         <v>260</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="56" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="H18" s="27"/>
+        <v>359</v>
+      </c>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="27"/>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="39"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="27"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="37" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="48" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -3802,7 +3938,7 @@
       <c r="E21" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="43" t="s">
         <v>261</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -3810,49 +3946,49 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="15" t="s">
         <v>171</v>
       </c>
@@ -3868,9 +4004,9 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="40" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="51" t="s">
         <v>169</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -3879,35 +4015,35 @@
       <c r="E26" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="57" t="s">
         <v>263</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="56" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="40"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="27"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="20" t="s">
         <v>174</v>
       </c>
@@ -3926,9 +4062,9 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46" t="s">
         <v>163</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -3937,45 +4073,45 @@
       <c r="E29" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="46" t="s">
         <v>179</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -3984,157 +4120,157 @@
       <c r="E32" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="43" t="s">
         <v>296</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="43"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F36" s="28"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="28"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F39" s="28"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="28"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F41" s="28"/>
+      <c r="F41" s="43"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="28"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="5" t="s">
         <v>284</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="28"/>
+      <c r="F43" s="43"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="6" t="s">
         <v>178</v>
       </c>
@@ -4150,13 +4286,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:8" s="24" customFormat="1">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="C45" s="31" t="s">
+      <c r="B45" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" s="45" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -4165,31 +4301,31 @@
       <c r="E45" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="33" t="s">
-        <v>347</v>
+      <c r="G45" s="54"/>
+      <c r="H45" s="53" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="24" customFormat="1">
-      <c r="A46" s="48"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="31"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="33"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="53"/>
     </row>
     <row r="47" spans="1:8" s="24" customFormat="1">
-      <c r="A47" s="48"/>
-      <c r="B47" s="50"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="25" t="s">
         <v>114</v>
       </c>
@@ -4204,13 +4340,13 @@
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="24" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="24" customFormat="1">
-      <c r="A48" s="48"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="31" t="s">
+      <c r="A48" s="64"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="45" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="23" t="s">
@@ -4219,31 +4355,31 @@
       <c r="E48" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="33" t="s">
-        <v>347</v>
+      <c r="G48" s="54"/>
+      <c r="H48" s="53" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="24" customFormat="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="31"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="33"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="53"/>
     </row>
     <row r="50" spans="1:8" s="24" customFormat="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="25" t="s">
         <v>116</v>
       </c>
@@ -4258,13 +4394,13 @@
       </c>
       <c r="G50" s="23"/>
       <c r="H50" s="24" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="24" customFormat="1">
-      <c r="A51" s="48"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="31" t="s">
+      <c r="A51" s="64"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="45" t="s">
         <v>119</v>
       </c>
       <c r="D51" s="23" t="s">
@@ -4273,31 +4409,31 @@
       <c r="E51" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="G51" s="34"/>
-      <c r="H51" s="33" t="s">
-        <v>347</v>
+      <c r="G51" s="54"/>
+      <c r="H51" s="53" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="24" customFormat="1">
-      <c r="A52" s="48"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="31"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="23" t="s">
         <v>283</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="33"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="53"/>
     </row>
     <row r="53" spans="1:8" s="24" customFormat="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="50"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="25" t="s">
         <v>118</v>
       </c>
@@ -4312,12 +4448,12 @@
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="24" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="48"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="64"/>
+      <c r="B54" s="37" t="s">
         <v>307</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -4327,7 +4463,7 @@
         <v>297</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>308</v>
@@ -4335,8 +4471,8 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="48"/>
-      <c r="B55" s="42"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="22" t="s">
         <v>120</v>
       </c>
@@ -4352,12 +4488,12 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="48"/>
-      <c r="B56" s="41" t="s">
+      <c r="A56" s="64"/>
+      <c r="B56" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>123</v>
+      <c r="C56" s="28" t="s">
+        <v>361</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>297</v>
@@ -4371,10 +4507,10 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="48"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="6" t="s">
-        <v>122</v>
+      <c r="A57" s="64"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="28" t="s">
+        <v>362</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>297</v>
@@ -4382,14 +4518,14 @@
       <c r="E57" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="27" t="s">
         <v>312</v>
       </c>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="48"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
         <v>124</v>
       </c>
@@ -4405,10 +4541,10 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="48"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="6" t="s">
-        <v>125</v>
+      <c r="A59" s="64"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="28" t="s">
+        <v>363</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>297</v>
@@ -4416,14 +4552,14 @@
       <c r="E59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="59" t="s">
         <v>314</v>
       </c>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="48"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="6" t="s">
         <v>126</v>
       </c>
@@ -4439,7 +4575,7 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:8" s="24" customFormat="1">
-      <c r="A61" s="48"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="26" t="s">
         <v>316</v>
       </c>
@@ -4457,12 +4593,12 @@
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="24" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="48"/>
-      <c r="B62" s="47" t="s">
+      <c r="A62" s="64"/>
+      <c r="B62" s="40" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4480,8 +4616,8 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="6" t="s">
         <v>143</v>
       </c>
@@ -4497,8 +4633,8 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="42"/>
       <c r="C64" s="6" t="s">
         <v>142</v>
       </c>
@@ -4514,8 +4650,8 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="48"/>
-      <c r="B65" s="44" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="40" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -4533,8 +4669,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="48"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="6" t="s">
         <v>139</v>
       </c>
@@ -4550,8 +4686,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="48"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="6" t="s">
         <v>141</v>
       </c>
@@ -4567,229 +4703,523 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="48"/>
-      <c r="B68" s="28" t="s">
+      <c r="A68" s="64"/>
+      <c r="B68" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="33" t="s">
         <v>330</v>
       </c>
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="48"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="5" t="s">
+      <c r="A69" s="64"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="F69" s="28"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="48"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="6" t="s">
+      <c r="A70" s="64"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="29" t="s">
         <v>331</v>
       </c>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="48"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="6" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="29" t="s">
         <v>332</v>
       </c>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="48"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="6" t="s">
+      <c r="A72" s="64"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="29" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="48"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="6" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="29" t="s">
         <v>334</v>
       </c>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="48"/>
-      <c r="B74" s="28" t="s">
+      <c r="A74" s="64"/>
+      <c r="B74" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="30" t="s">
         <v>336</v>
       </c>
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="48"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="6" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="30" t="s">
         <v>337</v>
       </c>
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="48"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="6" t="s">
+      <c r="A76" s="64"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="64"/>
+      <c r="B77" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="48"/>
-      <c r="B77" s="28" t="s">
+      <c r="C77" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>342</v>
+      <c r="F77" s="19" t="s">
+        <v>365</v>
       </c>
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="48"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="A78" s="64"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>344</v>
+      <c r="F78" s="19" t="s">
+        <v>367</v>
       </c>
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="49"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="6" t="s">
+      <c r="A79" s="64"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>345</v>
+      <c r="F79" s="19" t="s">
+        <v>368</v>
       </c>
       <c r="G79" s="5"/>
     </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="64"/>
+      <c r="B80" s="61" t="s">
+        <v>369</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="64"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="64"/>
+      <c r="B82" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="64"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="64"/>
+      <c r="B84" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="C84" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="64"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F85" s="60"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="64"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="64"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="64"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="64"/>
+      <c r="B89" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="C89" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="60" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="64"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F90" s="60"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="64"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="60"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="64"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="60"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="64"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F93" s="60"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="64"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F94" s="60"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="64"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F95" s="60"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="64"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="64"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="64"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A45:A79"/>
-    <mergeCell ref="A32:A44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B32:B44"/>
+  <mergeCells count="54">
+    <mergeCell ref="F89:F95"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="A45:A98"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="F32:F43"/>
+    <mergeCell ref="C32:C43"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H48:H49"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B2:B31"/>
     <mergeCell ref="C2:C7"/>
@@ -4803,23 +5233,21 @@
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B45:B53"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="F32:F43"/>
-    <mergeCell ref="C32:C43"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4863,13 +5291,13 @@
         <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="78.75">
@@ -4877,13 +5305,13 @@
         <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4891,13 +5319,13 @@
         <v>166</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4905,13 +5333,13 @@
         <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4919,13 +5347,13 @@
         <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
+++ b/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7920" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="10710" windowHeight="6795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修改范围" sheetId="1" r:id="rId1"/>
     <sheet name="方案" sheetId="2" r:id="rId2"/>
     <sheet name="ODI" sheetId="3" r:id="rId3"/>
     <sheet name="修改事实内容" sheetId="4" r:id="rId4"/>
+    <sheet name="OBIEE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="395">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1278,10 +1279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W_RTL_SLS_SC_DY_CUR_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W_RTL_SLS_SC_WK_CUR_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1326,6 +1323,48 @@
   </si>
   <si>
     <t>W_RTL_SLS_SC_LC_DY_RC_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_LC_DY_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_RA_RFM_VIP_F</t>
+  </si>
+  <si>
+    <t>SLS_TAX_COUPON_AMT_LCL</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_CL_LC_MN_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_SC_LC_MN_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RET_TAX_COUPON_AMT_LCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLS_COUPON_AMT_LCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RET_COUPON_AMT_LCL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,7 +1372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,6 +1431,14 @@
     <font>
       <sz val="9"/>
       <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1520,7 +1567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,103 +1664,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3565,10 +3636,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51:G52"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3611,13 +3682,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="59" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3626,7 +3697,7 @@
       <c r="E2" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="64" t="s">
         <v>233</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3634,78 +3705,78 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="43"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33.75">
-      <c r="A4" s="43"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="33.75">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="48" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="65" t="s">
         <v>164</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3714,7 +3785,7 @@
       <c r="E8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="58" t="s">
         <v>257</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3722,23 +3793,23 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="15" t="s">
         <v>274</v>
       </c>
@@ -3759,8 +3830,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="15" t="s">
         <v>173</v>
       </c>
@@ -3781,9 +3852,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="48" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="65" t="s">
         <v>168</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3792,78 +3863,78 @@
       <c r="E12" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="66" t="s">
         <v>259</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="57" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H13" s="56"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="43"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="48"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="43"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="48"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="56"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="43"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="56"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="43"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="48" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="65" t="s">
         <v>172</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3872,64 +3943,64 @@
       <c r="E17" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="67" t="s">
         <v>260</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="57" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="43"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="50"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="H18" s="56"/>
+      <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="43"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="48"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="50"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="56"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="43"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="48"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="50"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="56"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="43"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="48" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="65" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -3938,7 +4009,7 @@
       <c r="E21" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="58" t="s">
         <v>261</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -3946,49 +4017,49 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="43"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="48"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="43"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="48"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="43"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="48"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="43"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="15" t="s">
         <v>171</v>
       </c>
@@ -4004,9 +4075,9 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="43"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="51" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="68" t="s">
         <v>169</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -4015,35 +4086,35 @@
       <c r="E26" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="60" t="s">
         <v>263</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="57" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="56"/>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="20" t="s">
         <v>174</v>
       </c>
@@ -4062,9 +4133,9 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="43"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59" t="s">
         <v>163</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -4073,45 +4144,45 @@
       <c r="E29" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="58" t="s">
         <v>264</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="43"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="43"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="43"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="59" t="s">
         <v>179</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -4120,157 +4191,157 @@
       <c r="E32" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="58" t="s">
         <v>296</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="43"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="43"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="43"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F34" s="43"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="43"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="43"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="43"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="43"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F37" s="43"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="43"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="43"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="43"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="43"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F41" s="43"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="43"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="43"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="43"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="5" t="s">
         <v>284</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="43"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="43"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="6" t="s">
         <v>178</v>
       </c>
@@ -4286,13 +4357,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:8" s="24" customFormat="1">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="48" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -4301,31 +4372,31 @@
       <c r="E45" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="G45" s="54"/>
-      <c r="H45" s="53" t="s">
+      <c r="G45" s="62"/>
+      <c r="H45" s="61" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="24" customFormat="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="53"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="1:8" s="24" customFormat="1">
-      <c r="A47" s="64"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="25" t="s">
         <v>114</v>
       </c>
@@ -4344,9 +4415,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="24" customFormat="1">
-      <c r="A48" s="64"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="45" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="48" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="23" t="s">
@@ -4355,31 +4426,31 @@
       <c r="E48" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="G48" s="54"/>
-      <c r="H48" s="53" t="s">
+      <c r="G48" s="62"/>
+      <c r="H48" s="61" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="24" customFormat="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="45"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="53"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="1:8" s="24" customFormat="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="25" t="s">
         <v>116</v>
       </c>
@@ -4398,9 +4469,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="24" customFormat="1">
-      <c r="A51" s="64"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="45" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="48" t="s">
         <v>119</v>
       </c>
       <c r="D51" s="23" t="s">
@@ -4409,31 +4480,31 @@
       <c r="E51" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="G51" s="54"/>
-      <c r="H51" s="53" t="s">
+      <c r="G51" s="62"/>
+      <c r="H51" s="61" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="24" customFormat="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="23" t="s">
         <v>283</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="53"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="1:8" s="24" customFormat="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="25" t="s">
         <v>118</v>
       </c>
@@ -4452,8 +4523,8 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="64"/>
-      <c r="B54" s="37" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="51" t="s">
         <v>307</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -4471,8 +4542,8 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="64"/>
-      <c r="B55" s="38"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="22" t="s">
         <v>120</v>
       </c>
@@ -4488,8 +4559,8 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="64"/>
-      <c r="B56" s="37" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="51" t="s">
         <v>310</v>
       </c>
       <c r="C56" s="28" t="s">
@@ -4507,8 +4578,8 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="64"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="28" t="s">
         <v>362</v>
       </c>
@@ -4524,8 +4595,8 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="64"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="6" t="s">
         <v>124</v>
       </c>
@@ -4541,8 +4612,8 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="64"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="28" t="s">
         <v>363</v>
       </c>
@@ -4552,14 +4623,14 @@
       <c r="E59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="34" t="s">
         <v>314</v>
       </c>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="64"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="6" t="s">
         <v>126</v>
       </c>
@@ -4575,7 +4646,7 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:8" s="24" customFormat="1">
-      <c r="A61" s="64"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="26" t="s">
         <v>316</v>
       </c>
@@ -4597,8 +4668,8 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="64"/>
-      <c r="B62" s="40" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="54" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4616,8 +4687,8 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="64"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="6" t="s">
         <v>143</v>
       </c>
@@ -4633,8 +4704,8 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="64"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="6" t="s">
         <v>142</v>
       </c>
@@ -4649,9 +4720,9 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="64"/>
-      <c r="B65" s="40" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="43"/>
+      <c r="B65" s="54" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -4668,9 +4739,9 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="64"/>
-      <c r="B66" s="41"/>
+    <row r="66" spans="1:8">
+      <c r="A66" s="43"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="6" t="s">
         <v>139</v>
       </c>
@@ -4685,9 +4756,9 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="64"/>
-      <c r="B67" s="42"/>
+    <row r="67" spans="1:8">
+      <c r="A67" s="43"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="6" t="s">
         <v>141</v>
       </c>
@@ -4702,12 +4773,12 @@
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="64"/>
-      <c r="B68" s="35" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="43"/>
+      <c r="B68" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="70" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="29" t="s">
@@ -4716,27 +4787,27 @@
       <c r="E68" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="F68" s="69" t="s">
         <v>330</v>
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="64"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="34"/>
+    <row r="69" spans="1:8">
+      <c r="A69" s="43"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="29" t="s">
         <v>283</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="F69" s="33"/>
+      <c r="F69" s="69"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="64"/>
-      <c r="B70" s="35"/>
+    <row r="70" spans="1:8">
+      <c r="A70" s="43"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="31" t="s">
         <v>129</v>
       </c>
@@ -4751,9 +4822,9 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="64"/>
-      <c r="B71" s="35"/>
+    <row r="71" spans="1:8">
+      <c r="A71" s="43"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="31" t="s">
         <v>134</v>
       </c>
@@ -4768,9 +4839,9 @@
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="64"/>
-      <c r="B72" s="35"/>
+    <row r="72" spans="1:8">
+      <c r="A72" s="43"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="31" t="s">
         <v>127</v>
       </c>
@@ -4785,9 +4856,9 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="64"/>
-      <c r="B73" s="35"/>
+    <row r="73" spans="1:8">
+      <c r="A73" s="43"/>
+      <c r="B73" s="71"/>
       <c r="C73" s="31" t="s">
         <v>135</v>
       </c>
@@ -4802,9 +4873,9 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="64"/>
-      <c r="B74" s="35" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="43"/>
+      <c r="B74" s="71" t="s">
         <v>335</v>
       </c>
       <c r="C74" s="31" t="s">
@@ -4821,9 +4892,9 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="64"/>
-      <c r="B75" s="35"/>
+    <row r="75" spans="1:8">
+      <c r="A75" s="43"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="31" t="s">
         <v>144</v>
       </c>
@@ -4838,9 +4909,9 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="64"/>
-      <c r="B76" s="35"/>
+    <row r="76" spans="1:8">
+      <c r="A76" s="43"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="31" t="s">
         <v>146</v>
       </c>
@@ -4855,371 +4926,362 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="64"/>
-      <c r="B77" s="36" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" s="43"/>
+      <c r="B77" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="32" t="s">
         <v>365</v>
       </c>
       <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="64"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="32" t="s">
+      <c r="H77" s="57" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="43"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="F78" s="32" t="s">
         <v>367</v>
       </c>
       <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="64"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="32" t="s">
+      <c r="H78" s="57"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="43"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F79" s="19" t="s">
+      <c r="F79" s="32" t="s">
         <v>368</v>
       </c>
       <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="64"/>
-      <c r="B80" s="61" t="s">
+      <c r="H79" s="57"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="43"/>
+      <c r="B80" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="58" t="s">
+      <c r="F80" s="36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="43"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="36" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="64"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="11" t="s">
+    <row r="82" spans="1:6">
+      <c r="A82" s="43"/>
+      <c r="B82" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D82" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E82" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="43"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="43"/>
+      <c r="B84" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="43"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="43"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="64"/>
-      <c r="B82" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="D82" s="11" t="s">
+      <c r="F86" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="43"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E87" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="43"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="43"/>
+      <c r="B89" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="43"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="F90" s="39"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="43"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="39"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="43"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="39"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="43"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="F93" s="39"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="43"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F94" s="39"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="43"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="F95" s="39"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="43"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E96" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="64"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="11" t="s">
+      <c r="F96" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="43"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E97" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="64"/>
-      <c r="B84" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="C84" s="62" t="s">
-        <v>380</v>
-      </c>
-      <c r="D84" s="11" t="s">
+      <c r="F97" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="43"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="60" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="64"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="F85" s="60"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="64"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="11" t="s">
+      <c r="E98" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="36" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="64"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="64"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="64"/>
-      <c r="B89" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="C89" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F89" s="60" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="64"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F90" s="60"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="64"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="F91" s="60"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="64"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" s="60"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="64"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="F93" s="60"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="64"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="F94" s="60"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="64"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F95" s="60"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="64"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="64"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="64"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="F89:F95"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="A45:A98"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="F32:F43"/>
-    <mergeCell ref="C32:C43"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="B45:B53"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H48:H49"/>
+  <mergeCells count="55">
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B32:B44"/>
     <mergeCell ref="A2:A31"/>
     <mergeCell ref="B2:B31"/>
     <mergeCell ref="C2:C7"/>
@@ -5233,21 +5295,36 @@
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A32:A44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="F32:F43"/>
+    <mergeCell ref="C32:C43"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F89:F95"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="A45:A98"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="B45:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5361,4 +5438,289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
+++ b/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="10710" windowHeight="6795" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="10710" windowHeight="6795" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="修改范围" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="ODI" sheetId="3" r:id="rId3"/>
     <sheet name="修改事实内容" sheetId="4" r:id="rId4"/>
     <sheet name="OBIEE" sheetId="5" r:id="rId5"/>
+    <sheet name="历史数据修复" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="402">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,10 +1331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W_RTL_SLS_LC_DY_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1365,6 +1362,36 @@
   </si>
   <si>
     <t>RET_COUPON_AMT_LCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table(黄色为在OBIEE中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>DT_WID</t>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1372,7 +1399,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1441,6 +1471,21 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1567,7 +1612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1683,6 +1728,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2084,7 +2141,7 @@
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -3636,10 +3693,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3682,13 +3739,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="63" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3697,7 +3754,7 @@
       <c r="E2" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="68" t="s">
         <v>233</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3705,78 +3762,78 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33.75">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="64"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="64"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="33.75">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="65" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="69" t="s">
         <v>164</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3785,7 +3842,7 @@
       <c r="E8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="62" t="s">
         <v>257</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3793,23 +3850,23 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="15" t="s">
         <v>274</v>
       </c>
@@ -3830,8 +3887,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="15" t="s">
         <v>173</v>
       </c>
@@ -3852,9 +3909,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="65" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="69" t="s">
         <v>168</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3863,78 +3920,78 @@
       <c r="E12" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="70" t="s">
         <v>259</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="61" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="66"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="65"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="57"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="57"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="65" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="69" t="s">
         <v>172</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3943,64 +4000,64 @@
       <c r="E17" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="71" t="s">
         <v>260</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="61" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="67"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="H18" s="57"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="65"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="67"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="57"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="67"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="57"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="65" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="69" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -4009,7 +4066,7 @@
       <c r="E21" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="62" t="s">
         <v>261</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -4017,49 +4074,49 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="65"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F24" s="58"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="15" t="s">
         <v>171</v>
       </c>
@@ -4075,9 +4132,9 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="68" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="72" t="s">
         <v>169</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -4086,35 +4143,35 @@
       <c r="E26" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="64" t="s">
         <v>263</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="61" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="68"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="60"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="20" t="s">
         <v>174</v>
       </c>
@@ -4133,9 +4190,9 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59" t="s">
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63" t="s">
         <v>163</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -4144,45 +4201,45 @@
       <c r="E29" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="62" t="s">
         <v>264</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="63" t="s">
         <v>179</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -4191,157 +4248,157 @@
       <c r="E32" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="62" t="s">
         <v>296</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F36" s="58"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F37" s="58"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="5" t="s">
         <v>284</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="6" t="s">
         <v>178</v>
       </c>
@@ -4357,13 +4414,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:8" s="24" customFormat="1">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="52" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -4372,31 +4429,31 @@
       <c r="E45" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="61" t="s">
+      <c r="G45" s="66"/>
+      <c r="H45" s="65" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="24" customFormat="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="48"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="61"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="65"/>
     </row>
     <row r="47" spans="1:8" s="24" customFormat="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="50"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="25" t="s">
         <v>114</v>
       </c>
@@ -4415,9 +4472,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="24" customFormat="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="48" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="23" t="s">
@@ -4426,31 +4483,31 @@
       <c r="E48" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="G48" s="62"/>
-      <c r="H48" s="61" t="s">
+      <c r="G48" s="66"/>
+      <c r="H48" s="65" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="24" customFormat="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="48"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="61"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="65"/>
     </row>
     <row r="50" spans="1:8" s="24" customFormat="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="25" t="s">
         <v>116</v>
       </c>
@@ -4469,9 +4526,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="24" customFormat="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="48" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D51" s="23" t="s">
@@ -4480,31 +4537,31 @@
       <c r="E51" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="61" t="s">
+      <c r="G51" s="66"/>
+      <c r="H51" s="65" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="24" customFormat="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="48"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="23" t="s">
         <v>283</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="61"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="65"/>
     </row>
     <row r="53" spans="1:8" s="24" customFormat="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="50"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="25" t="s">
         <v>118</v>
       </c>
@@ -4523,8 +4580,8 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="43"/>
-      <c r="B54" s="51" t="s">
+      <c r="A54" s="47"/>
+      <c r="B54" s="55" t="s">
         <v>307</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -4542,8 +4599,8 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="43"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="22" t="s">
         <v>120</v>
       </c>
@@ -4559,8 +4616,8 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="43"/>
-      <c r="B56" s="51" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="55" t="s">
         <v>310</v>
       </c>
       <c r="C56" s="28" t="s">
@@ -4578,8 +4635,8 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="43"/>
-      <c r="B57" s="53"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="28" t="s">
         <v>362</v>
       </c>
@@ -4595,8 +4652,8 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="43"/>
-      <c r="B58" s="53"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="6" t="s">
         <v>124</v>
       </c>
@@ -4612,8 +4669,8 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="43"/>
-      <c r="B59" s="53"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="28" t="s">
         <v>363</v>
       </c>
@@ -4629,8 +4686,8 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="43"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="6" t="s">
         <v>126</v>
       </c>
@@ -4646,7 +4703,7 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:8" s="24" customFormat="1">
-      <c r="A61" s="43"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="26" t="s">
         <v>316</v>
       </c>
@@ -4668,8 +4725,8 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="43"/>
-      <c r="B62" s="54" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="58" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4687,8 +4744,8 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="43"/>
-      <c r="B63" s="55"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="6" t="s">
         <v>143</v>
       </c>
@@ -4704,8 +4761,8 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="43"/>
-      <c r="B64" s="56"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="6" t="s">
         <v>142</v>
       </c>
@@ -4721,8 +4778,8 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="43"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" s="58" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -4740,8 +4797,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="43"/>
-      <c r="B66" s="55"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="6" t="s">
         <v>139</v>
       </c>
@@ -4757,8 +4814,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="43"/>
-      <c r="B67" s="56"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="6" t="s">
         <v>141</v>
       </c>
@@ -4774,11 +4831,11 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="43"/>
-      <c r="B68" s="71" t="s">
+      <c r="A68" s="47"/>
+      <c r="B68" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="74" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="29" t="s">
@@ -4787,27 +4844,27 @@
       <c r="E68" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="69" t="s">
+      <c r="F68" s="73" t="s">
         <v>330</v>
       </c>
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="43"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="70"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="74"/>
       <c r="D69" s="29" t="s">
         <v>283</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="F69" s="69"/>
+      <c r="F69" s="73"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="43"/>
-      <c r="B70" s="71"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="75"/>
       <c r="C70" s="31" t="s">
         <v>129</v>
       </c>
@@ -4823,8 +4880,8 @@
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="43"/>
-      <c r="B71" s="71"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="75"/>
       <c r="C71" s="31" t="s">
         <v>134</v>
       </c>
@@ -4840,8 +4897,8 @@
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="43"/>
-      <c r="B72" s="71"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="75"/>
       <c r="C72" s="31" t="s">
         <v>127</v>
       </c>
@@ -4857,8 +4914,8 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="43"/>
-      <c r="B73" s="71"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="75"/>
       <c r="C73" s="31" t="s">
         <v>135</v>
       </c>
@@ -4874,8 +4931,8 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="43"/>
-      <c r="B74" s="71" t="s">
+      <c r="A74" s="47"/>
+      <c r="B74" s="75" t="s">
         <v>335</v>
       </c>
       <c r="C74" s="31" t="s">
@@ -4893,8 +4950,8 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="43"/>
-      <c r="B75" s="71"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="75"/>
       <c r="C75" s="31" t="s">
         <v>144</v>
       </c>
@@ -4910,8 +4967,8 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="43"/>
-      <c r="B76" s="71"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="75"/>
       <c r="C76" s="31" t="s">
         <v>146</v>
       </c>
@@ -4927,8 +4984,8 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="43"/>
-      <c r="B77" s="72" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="76" t="s">
         <v>338</v>
       </c>
       <c r="C77" s="33" t="s">
@@ -4944,13 +5001,13 @@
         <v>365</v>
       </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="57" t="s">
+      <c r="H77" s="61" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="43"/>
-      <c r="B78" s="72"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="76"/>
       <c r="C78" s="33" t="s">
         <v>366</v>
       </c>
@@ -4964,11 +5021,11 @@
         <v>367</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="57"/>
+      <c r="H78" s="61"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="43"/>
-      <c r="B79" s="72"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="76"/>
       <c r="C79" s="33" t="s">
         <v>136</v>
       </c>
@@ -4982,11 +5039,11 @@
         <v>368</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="57"/>
+      <c r="H79" s="61"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="43"/>
-      <c r="B80" s="44" t="s">
+      <c r="A80" s="47"/>
+      <c r="B80" s="48" t="s">
         <v>369</v>
       </c>
       <c r="C80" s="35" t="s">
@@ -5003,8 +5060,8 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="43"/>
-      <c r="B81" s="45"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="35" t="s">
         <v>152</v>
       </c>
@@ -5019,8 +5076,8 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="43"/>
-      <c r="B82" s="41" t="s">
+      <c r="A82" s="47"/>
+      <c r="B82" s="45" t="s">
         <v>372</v>
       </c>
       <c r="C82" s="35" t="s">
@@ -5037,8 +5094,8 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="43"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="35" t="s">
         <v>153</v>
       </c>
@@ -5053,11 +5110,11 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="43"/>
-      <c r="B84" s="45" t="s">
+      <c r="A84" s="47"/>
+      <c r="B84" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="51" t="s">
         <v>379</v>
       </c>
       <c r="D84" s="37" t="s">
@@ -5066,25 +5123,25 @@
       <c r="E84" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F84" s="46" t="s">
+      <c r="F84" s="50" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="43"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="47"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="37" t="s">
         <v>282</v>
       </c>
       <c r="E85" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="F85" s="46"/>
+      <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="43"/>
-      <c r="B86" s="45"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="35" t="s">
         <v>156</v>
       </c>
@@ -5099,8 +5156,8 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="43"/>
-      <c r="B87" s="45"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="35" t="s">
         <v>154</v>
       </c>
@@ -5115,8 +5172,8 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="43"/>
-      <c r="B88" s="45"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="35" t="s">
         <v>148</v>
       </c>
@@ -5126,16 +5183,16 @@
       <c r="E88" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="36" t="s">
+      <c r="F88" s="39" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="43"/>
-      <c r="B89" s="41" t="s">
+      <c r="A89" s="47"/>
+      <c r="B89" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C89" s="44" t="s">
         <v>158</v>
       </c>
       <c r="D89" s="36" t="s">
@@ -5144,85 +5201,85 @@
       <c r="E89" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="F89" s="39" t="s">
+      <c r="F89" s="43" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="43"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="40"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="44"/>
       <c r="D90" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E90" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="F90" s="39"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="43"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="40"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="44"/>
       <c r="D91" s="36" t="s">
         <v>281</v>
       </c>
       <c r="E91" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="F91" s="39"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="43"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="40"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="36" t="s">
         <v>381</v>
       </c>
       <c r="E92" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="39"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="43"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="40"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E93" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="F93" s="39"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="43"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="40"/>
+      <c r="A94" s="47"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E94" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="F94" s="39"/>
+      <c r="F94" s="43"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="43"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="40"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="36" t="s">
         <v>283</v>
       </c>
       <c r="E95" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="F95" s="39"/>
+      <c r="F95" s="43"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="43"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="35" t="s">
         <v>157</v>
       </c>
@@ -5237,8 +5294,8 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="43"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="35" t="s">
         <v>149</v>
       </c>
@@ -5253,8 +5310,8 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="43"/>
-      <c r="B98" s="41"/>
+      <c r="A98" s="47"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="35" t="s">
         <v>155</v>
       </c>
@@ -5444,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5456,7 +5513,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5467,7 +5524,7 @@
         <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5475,10 +5532,10 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5486,10 +5543,10 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5497,10 +5554,10 @@
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5553,7 +5610,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>280</v>
@@ -5593,10 +5650,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5636,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5644,12 +5701,12 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
         <v>280</v>
@@ -5681,7 +5738,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B28" t="s">
         <v>280</v>
@@ -5723,4 +5780,526 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
+        <v>120160621000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41">
+        <v>120160622000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="41">
+        <v>120160623000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="41">
+        <v>120160624000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41">
+        <v>120160625000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41">
+        <v>120160626000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="41">
+        <v>120160627000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="41">
+        <v>120160628000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="41">
+        <v>120160629000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="41">
+        <v>120160630000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41">
+        <v>120160701000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41">
+        <v>120160702000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="41">
+        <v>120160703000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="41">
+        <v>120160704000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="41">
+        <v>120160705000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="41">
+        <v>120160706000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="41">
+        <v>120160707000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41">
+        <v>120160708000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="41">
+        <v>120160709000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="41">
+        <v>120160710000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="41">
+        <v>120160711000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="41">
+        <v>120160712000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="41">
+        <v>120160713000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="41">
+        <v>120160714000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="41">
+        <v>120160715000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="41">
+        <v>120160716000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="41">
+        <v>120160717000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="41">
+        <v>120160718000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="41">
+        <v>120160719000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="42">
+        <v>120160720000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="42">
+        <v>120160721000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="42">
+        <v>120160722000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="42">
+        <v>120160723000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="42">
+        <v>120160724000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="42">
+        <v>120160725000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="42">
+        <v>120160726000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
+++ b/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="403">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1394,6 +1394,10 @@
     <t>PLP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1402,7 +1406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1476,14 +1480,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1612,7 +1608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1737,9 +1733,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3739,13 +3732,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3754,7 +3747,7 @@
       <c r="E2" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="67" t="s">
         <v>233</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3762,78 +3755,78 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33.75">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="33.75">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="69" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="68" t="s">
         <v>164</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3842,7 +3835,7 @@
       <c r="E8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="61" t="s">
         <v>257</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3850,23 +3843,23 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="69"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="15" t="s">
         <v>274</v>
       </c>
@@ -3887,8 +3880,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="15" t="s">
         <v>173</v>
       </c>
@@ -3909,9 +3902,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="69" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="68" t="s">
         <v>168</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3920,78 +3913,78 @@
       <c r="E12" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="69" t="s">
         <v>259</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="60" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H13" s="61"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="69"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="61"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="69"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="61"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="70"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="61"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="68" t="s">
         <v>172</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -4000,64 +3993,64 @@
       <c r="E17" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="70" t="s">
         <v>260</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="H17" s="60" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="69"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="71"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="H18" s="61"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="69"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="61"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="69"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="71"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="61"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="69" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="68" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -4066,7 +4059,7 @@
       <c r="E21" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="61" t="s">
         <v>261</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -4074,49 +4067,49 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="69"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="69"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="15" t="s">
         <v>171</v>
       </c>
@@ -4132,9 +4125,9 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="72" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="71" t="s">
         <v>169</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -4143,35 +4136,35 @@
       <c r="E26" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="63" t="s">
         <v>263</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="60" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="72"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="64"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="61"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="20" t="s">
         <v>174</v>
       </c>
@@ -4190,9 +4183,9 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62" t="s">
         <v>163</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -4201,45 +4194,45 @@
       <c r="E29" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="61" t="s">
         <v>264</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>179</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -4248,157 +4241,157 @@
       <c r="E32" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="61" t="s">
         <v>296</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F34" s="62"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="62"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="62"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="61"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="5" t="s">
         <v>284</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="62"/>
+      <c r="F43" s="61"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="6" t="s">
         <v>178</v>
       </c>
@@ -4414,13 +4407,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:8" s="24" customFormat="1">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="51" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -4429,31 +4422,31 @@
       <c r="E45" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="F45" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="G45" s="66"/>
-      <c r="H45" s="65" t="s">
+      <c r="G45" s="65"/>
+      <c r="H45" s="64" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="24" customFormat="1">
-      <c r="A46" s="47"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="52"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="65"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="64"/>
     </row>
     <row r="47" spans="1:8" s="24" customFormat="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="25" t="s">
         <v>114</v>
       </c>
@@ -4472,9 +4465,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="24" customFormat="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="52" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="51" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="23" t="s">
@@ -4483,31 +4476,31 @@
       <c r="E48" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F48" s="53" t="s">
+      <c r="F48" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="G48" s="66"/>
-      <c r="H48" s="65" t="s">
+      <c r="G48" s="65"/>
+      <c r="H48" s="64" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="24" customFormat="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="52"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="65"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="64"/>
     </row>
     <row r="50" spans="1:8" s="24" customFormat="1">
-      <c r="A50" s="47"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="25" t="s">
         <v>116</v>
       </c>
@@ -4526,9 +4519,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="24" customFormat="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="52" t="s">
+      <c r="A51" s="46"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="51" t="s">
         <v>119</v>
       </c>
       <c r="D51" s="23" t="s">
@@ -4537,31 +4530,31 @@
       <c r="E51" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="53" t="s">
+      <c r="F51" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="G51" s="66"/>
-      <c r="H51" s="65" t="s">
+      <c r="G51" s="65"/>
+      <c r="H51" s="64" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="24" customFormat="1">
-      <c r="A52" s="47"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="52"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="23" t="s">
         <v>283</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="65"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="64"/>
     </row>
     <row r="53" spans="1:8" s="24" customFormat="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="54"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="25" t="s">
         <v>118</v>
       </c>
@@ -4580,8 +4573,8 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="47"/>
-      <c r="B54" s="55" t="s">
+      <c r="A54" s="46"/>
+      <c r="B54" s="54" t="s">
         <v>307</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -4599,8 +4592,8 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="47"/>
-      <c r="B55" s="56"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="22" t="s">
         <v>120</v>
       </c>
@@ -4616,8 +4609,8 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="47"/>
-      <c r="B56" s="55" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="54" t="s">
         <v>310</v>
       </c>
       <c r="C56" s="28" t="s">
@@ -4635,8 +4628,8 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="47"/>
-      <c r="B57" s="57"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="28" t="s">
         <v>362</v>
       </c>
@@ -4652,8 +4645,8 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="47"/>
-      <c r="B58" s="57"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="6" t="s">
         <v>124</v>
       </c>
@@ -4669,8 +4662,8 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="47"/>
-      <c r="B59" s="57"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="28" t="s">
         <v>363</v>
       </c>
@@ -4686,8 +4679,8 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="47"/>
-      <c r="B60" s="56"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="6" t="s">
         <v>126</v>
       </c>
@@ -4703,7 +4696,7 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:8" s="24" customFormat="1">
-      <c r="A61" s="47"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="26" t="s">
         <v>316</v>
       </c>
@@ -4725,8 +4718,8 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="47"/>
-      <c r="B62" s="58" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="57" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4744,8 +4737,8 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="47"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="6" t="s">
         <v>143</v>
       </c>
@@ -4761,8 +4754,8 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="47"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="6" t="s">
         <v>142</v>
       </c>
@@ -4778,8 +4771,8 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="47"/>
-      <c r="B65" s="58" t="s">
+      <c r="A65" s="46"/>
+      <c r="B65" s="57" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -4797,8 +4790,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="47"/>
-      <c r="B66" s="59"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="6" t="s">
         <v>139</v>
       </c>
@@ -4814,8 +4807,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="47"/>
-      <c r="B67" s="60"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="6" t="s">
         <v>141</v>
       </c>
@@ -4831,11 +4824,11 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="47"/>
-      <c r="B68" s="75" t="s">
+      <c r="A68" s="46"/>
+      <c r="B68" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="73" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="29" t="s">
@@ -4844,27 +4837,27 @@
       <c r="E68" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="73" t="s">
+      <c r="F68" s="72" t="s">
         <v>330</v>
       </c>
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="47"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="74"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="29" t="s">
         <v>283</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="F69" s="73"/>
+      <c r="F69" s="72"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="47"/>
-      <c r="B70" s="75"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="31" t="s">
         <v>129</v>
       </c>
@@ -4880,8 +4873,8 @@
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="47"/>
-      <c r="B71" s="75"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="74"/>
       <c r="C71" s="31" t="s">
         <v>134</v>
       </c>
@@ -4897,8 +4890,8 @@
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="47"/>
-      <c r="B72" s="75"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="31" t="s">
         <v>127</v>
       </c>
@@ -4914,8 +4907,8 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="47"/>
-      <c r="B73" s="75"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="31" t="s">
         <v>135</v>
       </c>
@@ -4931,8 +4924,8 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="47"/>
-      <c r="B74" s="75" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="74" t="s">
         <v>335</v>
       </c>
       <c r="C74" s="31" t="s">
@@ -4950,8 +4943,8 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="47"/>
-      <c r="B75" s="75"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="31" t="s">
         <v>144</v>
       </c>
@@ -4967,8 +4960,8 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="47"/>
-      <c r="B76" s="75"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="31" t="s">
         <v>146</v>
       </c>
@@ -4984,8 +4977,8 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="47"/>
-      <c r="B77" s="76" t="s">
+      <c r="A77" s="46"/>
+      <c r="B77" s="75" t="s">
         <v>338</v>
       </c>
       <c r="C77" s="33" t="s">
@@ -5001,13 +4994,13 @@
         <v>365</v>
       </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="61" t="s">
+      <c r="H77" s="60" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="47"/>
-      <c r="B78" s="76"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="75"/>
       <c r="C78" s="33" t="s">
         <v>366</v>
       </c>
@@ -5021,11 +5014,11 @@
         <v>367</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="61"/>
+      <c r="H78" s="60"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="47"/>
-      <c r="B79" s="76"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="75"/>
       <c r="C79" s="33" t="s">
         <v>136</v>
       </c>
@@ -5039,11 +5032,11 @@
         <v>368</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="61"/>
+      <c r="H79" s="60"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="47"/>
-      <c r="B80" s="48" t="s">
+      <c r="A80" s="46"/>
+      <c r="B80" s="47" t="s">
         <v>369</v>
       </c>
       <c r="C80" s="35" t="s">
@@ -5060,8 +5053,8 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="47"/>
-      <c r="B81" s="49"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="35" t="s">
         <v>152</v>
       </c>
@@ -5076,8 +5069,8 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="47"/>
-      <c r="B82" s="45" t="s">
+      <c r="A82" s="46"/>
+      <c r="B82" s="44" t="s">
         <v>372</v>
       </c>
       <c r="C82" s="35" t="s">
@@ -5094,8 +5087,8 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="47"/>
-      <c r="B83" s="45"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="35" t="s">
         <v>153</v>
       </c>
@@ -5110,11 +5103,11 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="47"/>
-      <c r="B84" s="49" t="s">
+      <c r="A84" s="46"/>
+      <c r="B84" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="50" t="s">
         <v>379</v>
       </c>
       <c r="D84" s="37" t="s">
@@ -5123,25 +5116,25 @@
       <c r="E84" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F84" s="50" t="s">
+      <c r="F84" s="49" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="47"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="51"/>
+      <c r="A85" s="46"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="50"/>
       <c r="D85" s="37" t="s">
         <v>282</v>
       </c>
       <c r="E85" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="F85" s="50"/>
+      <c r="F85" s="49"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="47"/>
-      <c r="B86" s="49"/>
+      <c r="A86" s="46"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="35" t="s">
         <v>156</v>
       </c>
@@ -5156,8 +5149,8 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="47"/>
-      <c r="B87" s="49"/>
+      <c r="A87" s="46"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="35" t="s">
         <v>154</v>
       </c>
@@ -5172,8 +5165,8 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="47"/>
-      <c r="B88" s="49"/>
+      <c r="A88" s="46"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="35" t="s">
         <v>148</v>
       </c>
@@ -5188,11 +5181,11 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="47"/>
-      <c r="B89" s="45" t="s">
+      <c r="A89" s="46"/>
+      <c r="B89" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C89" s="43" t="s">
         <v>158</v>
       </c>
       <c r="D89" s="36" t="s">
@@ -5201,85 +5194,85 @@
       <c r="E89" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="F89" s="43" t="s">
+      <c r="F89" s="42" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="47"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="44"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E90" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="F90" s="43"/>
+      <c r="F90" s="42"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="47"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="44"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="36" t="s">
         <v>281</v>
       </c>
       <c r="E91" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="F91" s="43"/>
+      <c r="F91" s="42"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="47"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="44"/>
+      <c r="A92" s="46"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="36" t="s">
         <v>381</v>
       </c>
       <c r="E92" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="43"/>
+      <c r="F92" s="42"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="47"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="44"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E93" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="F93" s="43"/>
+      <c r="F93" s="42"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="47"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="44"/>
+      <c r="A94" s="46"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E94" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="F94" s="43"/>
+      <c r="F94" s="42"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="47"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="44"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="36" t="s">
         <v>283</v>
       </c>
       <c r="E95" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="F95" s="43"/>
+      <c r="F95" s="42"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="47"/>
-      <c r="B96" s="45"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="35" t="s">
         <v>157</v>
       </c>
@@ -5294,8 +5287,8 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="47"/>
-      <c r="B97" s="45"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="35" t="s">
         <v>149</v>
       </c>
@@ -5310,8 +5303,8 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="47"/>
-      <c r="B98" s="45"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="35" t="s">
         <v>155</v>
       </c>
@@ -5786,8 +5779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5827,6 +5820,9 @@
       <c r="D2" t="s">
         <v>400</v>
       </c>
+      <c r="E2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
@@ -5841,6 +5837,9 @@
       <c r="D3" t="s">
         <v>400</v>
       </c>
+      <c r="E3" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -5855,6 +5854,9 @@
       <c r="D4" t="s">
         <v>400</v>
       </c>
+      <c r="E4" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -6224,77 +6226,98 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="41">
         <v>120160720000</v>
       </c>
       <c r="C31" t="s">
         <v>342</v>
+      </c>
+      <c r="D31" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="41">
         <v>120160721000</v>
       </c>
       <c r="C32" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="41">
         <v>120160722000</v>
       </c>
       <c r="C33" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="41">
         <v>120160723000</v>
       </c>
       <c r="C34" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="41">
         <v>120160724000</v>
       </c>
       <c r="C35" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="41">
         <v>120160725000</v>
       </c>
       <c r="C36" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="41">
         <v>120160726000</v>
       </c>
       <c r="C37" t="s">
         <v>342</v>
+      </c>
+      <c r="D37" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
+++ b/Task/2016-06-14劵不记销售/RA_劵不计销售.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="403">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1735,6 +1735,60 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1762,12 +1816,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1787,54 +1835,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3732,13 +3732,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="50" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3747,7 +3747,7 @@
       <c r="E2" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="51" t="s">
         <v>233</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -3755,78 +3755,78 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="67"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33.75">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="67"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="33.75">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="68" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="52" t="s">
         <v>164</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3835,7 +3835,7 @@
       <c r="E8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="47" t="s">
         <v>257</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3843,23 +3843,23 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="68"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="15" t="s">
         <v>274</v>
       </c>
@@ -3880,8 +3880,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="15" t="s">
         <v>173</v>
       </c>
@@ -3902,9 +3902,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="68" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="52" t="s">
         <v>168</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -3913,78 +3913,78 @@
       <c r="E12" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="53" t="s">
         <v>259</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="42" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="68"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="69"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="60"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="68"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="69"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="60"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="68"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="69"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="60"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="68" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="52" t="s">
         <v>172</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3993,64 +3993,64 @@
       <c r="E17" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="54" t="s">
         <v>260</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="42" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="68"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="70"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="68"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="60"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="68"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="60"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="68" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="52" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -4059,7 +4059,7 @@
       <c r="E21" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="47" t="s">
         <v>261</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -4067,49 +4067,49 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="68"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="68"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="68"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F24" s="61"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="15" t="s">
         <v>171</v>
       </c>
@@ -4125,9 +4125,9 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="71" t="s">
+      <c r="A26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="55" t="s">
         <v>169</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -4136,35 +4136,35 @@
       <c r="E26" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="59" t="s">
         <v>263</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="42" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="71"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="60"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="20" t="s">
         <v>174</v>
       </c>
@@ -4183,9 +4183,9 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50" t="s">
         <v>163</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -4194,45 +4194,45 @@
       <c r="E29" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="47" t="s">
         <v>264</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="5" t="s">
         <v>241</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F31" s="61"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="50" t="s">
         <v>179</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -4241,157 +4241,157 @@
       <c r="E32" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="47" t="s">
         <v>296</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="61"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F34" s="61"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="61"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="61"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F41" s="61"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="5" t="s">
         <v>284</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="61"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="61"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="6" t="s">
         <v>178</v>
       </c>
@@ -4407,13 +4407,13 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:8" s="24" customFormat="1">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="69" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="49" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -4422,31 +4422,31 @@
       <c r="E45" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="G45" s="65"/>
-      <c r="H45" s="64" t="s">
+      <c r="G45" s="57"/>
+      <c r="H45" s="56" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="24" customFormat="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="51"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="64"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="56"/>
     </row>
     <row r="47" spans="1:8" s="24" customFormat="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="53"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="25" t="s">
         <v>114</v>
       </c>
@@ -4465,9 +4465,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="24" customFormat="1">
-      <c r="A48" s="46"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="51" t="s">
+      <c r="A48" s="64"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="49" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="23" t="s">
@@ -4476,31 +4476,31 @@
       <c r="E48" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F48" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="G48" s="65"/>
-      <c r="H48" s="64" t="s">
+      <c r="G48" s="57"/>
+      <c r="H48" s="56" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="24" customFormat="1">
-      <c r="A49" s="46"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="51"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="23" t="s">
         <v>297</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="64"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="56"/>
     </row>
     <row r="50" spans="1:8" s="24" customFormat="1">
-      <c r="A50" s="46"/>
-      <c r="B50" s="53"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="25" t="s">
         <v>116</v>
       </c>
@@ -4519,9 +4519,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="24" customFormat="1">
-      <c r="A51" s="46"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="51" t="s">
+      <c r="A51" s="64"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="49" t="s">
         <v>119</v>
       </c>
       <c r="D51" s="23" t="s">
@@ -4530,31 +4530,31 @@
       <c r="E51" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="52" t="s">
+      <c r="F51" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="G51" s="65"/>
-      <c r="H51" s="64" t="s">
+      <c r="G51" s="57"/>
+      <c r="H51" s="56" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="24" customFormat="1">
-      <c r="A52" s="46"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="51"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="23" t="s">
         <v>283</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="64"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="56"/>
     </row>
     <row r="53" spans="1:8" s="24" customFormat="1">
-      <c r="A53" s="46"/>
-      <c r="B53" s="53"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="25" t="s">
         <v>118</v>
       </c>
@@ -4573,8 +4573,8 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="46"/>
-      <c r="B54" s="54" t="s">
+      <c r="A54" s="64"/>
+      <c r="B54" s="70" t="s">
         <v>307</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -4592,8 +4592,8 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="46"/>
-      <c r="B55" s="55"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="22" t="s">
         <v>120</v>
       </c>
@@ -4609,8 +4609,8 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="46"/>
-      <c r="B56" s="54" t="s">
+      <c r="A56" s="64"/>
+      <c r="B56" s="70" t="s">
         <v>310</v>
       </c>
       <c r="C56" s="28" t="s">
@@ -4628,8 +4628,8 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="46"/>
-      <c r="B57" s="56"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="28" t="s">
         <v>362</v>
       </c>
@@ -4645,8 +4645,8 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="46"/>
-      <c r="B58" s="56"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="6" t="s">
         <v>124</v>
       </c>
@@ -4662,8 +4662,8 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="46"/>
-      <c r="B59" s="56"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="72"/>
       <c r="C59" s="28" t="s">
         <v>363</v>
       </c>
@@ -4679,8 +4679,8 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="46"/>
-      <c r="B60" s="55"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="6" t="s">
         <v>126</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:8" s="24" customFormat="1">
-      <c r="A61" s="46"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="26" t="s">
         <v>316</v>
       </c>
@@ -4718,8 +4718,8 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="46"/>
-      <c r="B62" s="57" t="s">
+      <c r="A62" s="64"/>
+      <c r="B62" s="73" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4737,8 +4737,8 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="46"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="6" t="s">
         <v>143</v>
       </c>
@@ -4754,8 +4754,8 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="46"/>
-      <c r="B64" s="59"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="75"/>
       <c r="C64" s="6" t="s">
         <v>142</v>
       </c>
@@ -4771,8 +4771,8 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="46"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="73" t="s">
         <v>322</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -4790,8 +4790,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="46"/>
-      <c r="B66" s="58"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="6" t="s">
         <v>139</v>
       </c>
@@ -4807,8 +4807,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="46"/>
-      <c r="B67" s="59"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="6" t="s">
         <v>141</v>
       </c>
@@ -4824,11 +4824,11 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="46"/>
-      <c r="B68" s="74" t="s">
+      <c r="A68" s="64"/>
+      <c r="B68" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="C68" s="73" t="s">
+      <c r="C68" s="44" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="29" t="s">
@@ -4837,27 +4837,27 @@
       <c r="E68" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="72" t="s">
+      <c r="F68" s="43" t="s">
         <v>330</v>
       </c>
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="46"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="73"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="29" t="s">
         <v>283</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="F69" s="72"/>
+      <c r="F69" s="43"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="46"/>
-      <c r="B70" s="74"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="31" t="s">
         <v>129</v>
       </c>
@@ -4873,8 +4873,8 @@
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="46"/>
-      <c r="B71" s="74"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="31" t="s">
         <v>134</v>
       </c>
@@ -4890,8 +4890,8 @@
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="46"/>
-      <c r="B72" s="74"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="31" t="s">
         <v>127</v>
       </c>
@@ -4907,8 +4907,8 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="46"/>
-      <c r="B73" s="74"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="31" t="s">
         <v>135</v>
       </c>
@@ -4924,8 +4924,8 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="46"/>
-      <c r="B74" s="74" t="s">
+      <c r="A74" s="64"/>
+      <c r="B74" s="45" t="s">
         <v>335</v>
       </c>
       <c r="C74" s="31" t="s">
@@ -4943,8 +4943,8 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="46"/>
-      <c r="B75" s="74"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="31" t="s">
         <v>144</v>
       </c>
@@ -4960,8 +4960,8 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="46"/>
-      <c r="B76" s="74"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="31" t="s">
         <v>146</v>
       </c>
@@ -4977,8 +4977,8 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="46"/>
-      <c r="B77" s="75" t="s">
+      <c r="A77" s="64"/>
+      <c r="B77" s="46" t="s">
         <v>338</v>
       </c>
       <c r="C77" s="33" t="s">
@@ -4994,13 +4994,13 @@
         <v>365</v>
       </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="60" t="s">
+      <c r="H77" s="42" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="46"/>
-      <c r="B78" s="75"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="46"/>
       <c r="C78" s="33" t="s">
         <v>366</v>
       </c>
@@ -5014,11 +5014,11 @@
         <v>367</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="60"/>
+      <c r="H78" s="42"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="46"/>
-      <c r="B79" s="75"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="33" t="s">
         <v>136</v>
       </c>
@@ -5032,11 +5032,11 @@
         <v>368</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="60"/>
+      <c r="H79" s="42"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="46"/>
-      <c r="B80" s="47" t="s">
+      <c r="A80" s="64"/>
+      <c r="B80" s="65" t="s">
         <v>369</v>
       </c>
       <c r="C80" s="35" t="s">
@@ -5053,8 +5053,8 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="46"/>
-      <c r="B81" s="48"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="66"/>
       <c r="C81" s="35" t="s">
         <v>152</v>
       </c>
@@ -5069,8 +5069,8 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="46"/>
-      <c r="B82" s="44" t="s">
+      <c r="A82" s="64"/>
+      <c r="B82" s="62" t="s">
         <v>372</v>
       </c>
       <c r="C82" s="35" t="s">
@@ -5087,8 +5087,8 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="46"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="62"/>
       <c r="C83" s="35" t="s">
         <v>153</v>
       </c>
@@ -5103,11 +5103,11 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="46"/>
-      <c r="B84" s="48" t="s">
+      <c r="A84" s="64"/>
+      <c r="B84" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="68" t="s">
         <v>379</v>
       </c>
       <c r="D84" s="37" t="s">
@@ -5116,25 +5116,25 @@
       <c r="E84" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F84" s="49" t="s">
+      <c r="F84" s="67" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="46"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="50"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="68"/>
       <c r="D85" s="37" t="s">
         <v>282</v>
       </c>
       <c r="E85" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="F85" s="49"/>
+      <c r="F85" s="67"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="46"/>
-      <c r="B86" s="48"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="66"/>
       <c r="C86" s="35" t="s">
         <v>156</v>
       </c>
@@ -5149,8 +5149,8 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="46"/>
-      <c r="B87" s="48"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="66"/>
       <c r="C87" s="35" t="s">
         <v>154</v>
       </c>
@@ -5165,8 +5165,8 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="46"/>
-      <c r="B88" s="48"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="66"/>
       <c r="C88" s="35" t="s">
         <v>148</v>
       </c>
@@ -5181,11 +5181,11 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="46"/>
-      <c r="B89" s="44" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D89" s="36" t="s">
@@ -5194,85 +5194,85 @@
       <c r="E89" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="60" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="46"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="43"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="61"/>
       <c r="D90" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E90" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="F90" s="42"/>
+      <c r="F90" s="60"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="46"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="43"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="61"/>
       <c r="D91" s="36" t="s">
         <v>281</v>
       </c>
       <c r="E91" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="F91" s="42"/>
+      <c r="F91" s="60"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="46"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="43"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="61"/>
       <c r="D92" s="36" t="s">
         <v>381</v>
       </c>
       <c r="E92" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="42"/>
+      <c r="F92" s="60"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="46"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="43"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="61"/>
       <c r="D93" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E93" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="F93" s="42"/>
+      <c r="F93" s="60"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="46"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="43"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="61"/>
       <c r="D94" s="36" t="s">
         <v>282</v>
       </c>
       <c r="E94" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="F94" s="42"/>
+      <c r="F94" s="60"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="46"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="43"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="61"/>
       <c r="D95" s="36" t="s">
         <v>283</v>
       </c>
       <c r="E95" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="F95" s="42"/>
+      <c r="F95" s="60"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="46"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="62"/>
       <c r="C96" s="35" t="s">
         <v>157</v>
       </c>
@@ -5287,8 +5287,8 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="46"/>
-      <c r="B97" s="44"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="62"/>
       <c r="C97" s="35" t="s">
         <v>149</v>
       </c>
@@ -5303,8 +5303,8 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="46"/>
-      <c r="B98" s="44"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="62"/>
       <c r="C98" s="35" t="s">
         <v>155</v>
       </c>
@@ -5320,45 +5320,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A32:A44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B32:B44"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="B2:B31"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="F32:F43"/>
-    <mergeCell ref="C32:C43"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="H26:H27"/>
     <mergeCell ref="F89:F95"/>
     <mergeCell ref="C89:C95"/>
     <mergeCell ref="B89:B98"/>
@@ -5375,6 +5336,45 @@
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B67"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="F32:F43"/>
+    <mergeCell ref="C32:C43"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B2:B31"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5780,7 +5780,8 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5871,6 +5872,9 @@
       <c r="D5" t="s">
         <v>400</v>
       </c>
+      <c r="E5" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -5885,6 +5889,9 @@
       <c r="D6" t="s">
         <v>400</v>
       </c>
+      <c r="E6" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -5899,6 +5906,9 @@
       <c r="D7" t="s">
         <v>400</v>
       </c>
+      <c r="E7" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
@@ -5913,6 +5923,9 @@
       <c r="D8" t="s">
         <v>400</v>
       </c>
+      <c r="E8" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
@@ -5927,6 +5940,9 @@
       <c r="D9" t="s">
         <v>400</v>
       </c>
+      <c r="E9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
@@ -5941,6 +5957,9 @@
       <c r="D10" t="s">
         <v>400</v>
       </c>
+      <c r="E10" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
@@ -5955,6 +5974,9 @@
       <c r="D11" t="s">
         <v>400</v>
       </c>
+      <c r="E11" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -5969,6 +5991,9 @@
       <c r="D12" t="s">
         <v>280</v>
       </c>
+      <c r="E12" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
@@ -5983,6 +6008,9 @@
       <c r="D13" t="s">
         <v>280</v>
       </c>
+      <c r="E13" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
@@ -5997,6 +6025,9 @@
       <c r="D14" t="s">
         <v>280</v>
       </c>
+      <c r="E14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
@@ -6011,6 +6042,9 @@
       <c r="D15" t="s">
         <v>280</v>
       </c>
+      <c r="E15" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
@@ -6025,8 +6059,11 @@
       <c r="D16" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6039,8 +6076,11 @@
       <c r="D17" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6053,8 +6093,11 @@
       <c r="D18" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6067,8 +6110,11 @@
       <c r="D19" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6081,8 +6127,11 @@
       <c r="D20" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6095,8 +6144,11 @@
       <c r="D21" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6109,8 +6161,11 @@
       <c r="D22" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6123,8 +6178,11 @@
       <c r="D23" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6137,8 +6195,11 @@
       <c r="D24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6151,8 +6212,11 @@
       <c r="D25" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6165,8 +6229,11 @@
       <c r="D26" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6179,8 +6246,11 @@
       <c r="D27" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6193,8 +6263,11 @@
       <c r="D28" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6207,8 +6280,11 @@
       <c r="D29" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6221,8 +6297,11 @@
       <c r="D30" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6235,8 +6314,11 @@
       <c r="D31" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6249,8 +6331,11 @@
       <c r="D32" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6263,8 +6348,11 @@
       <c r="D33" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6277,8 +6365,11 @@
       <c r="D34" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6291,8 +6382,11 @@
       <c r="D35" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6305,8 +6399,11 @@
       <c r="D36" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6317,6 +6414,9 @@
         <v>342</v>
       </c>
       <c r="D37" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" t="s">
         <v>280</v>
       </c>
     </row>
